--- a/StructureDefinition-SegundoApellido.xlsx
+++ b/StructureDefinition-SegundoApellido.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T15:47:06-04:00</t>
+    <t>2023-06-30T18:27:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SegundoApellido.xlsx
+++ b/StructureDefinition-SegundoApellido.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T18:27:12-04:00</t>
+    <t>2023-09-13T17:11:14-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,7 +120,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Patient</t>
   </si>
   <si>
     <t/>
@@ -136,6 +136,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -183,10 +187,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -540,13 +540,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="1.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="9.734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -555,25 +555,25 @@
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="9.2890625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="17.4453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="2.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="4.625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -673,7 +673,7 @@
         <v>36</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>36</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -695,7 +695,7 @@
         <v>37</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>36</v>
@@ -707,13 +707,13 @@
         <v>36</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -764,30 +764,30 @@
         <v>36</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -810,13 +810,13 @@
         <v>36</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -855,19 +855,19 @@
         <v>36</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>37</v>
@@ -879,7 +879,7 @@
         <v>36</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>36</v>
@@ -898,10 +898,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>36</v>
@@ -975,10 +975,10 @@
         <v>56</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>36</v>
@@ -1006,7 +1006,7 @@
         <v>37</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>36</v>
@@ -1081,7 +1081,7 @@
         <v>37</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>66</v>
